--- a/moda.xlsx
+++ b/moda.xlsx
@@ -19,10 +19,10 @@
     <t>ao_vivo</t>
   </si>
   <si>
-    <t>duracao</t>
-  </si>
-  <si>
-    <t>nota</t>
+    <t>genero</t>
+  </si>
+  <si>
+    <t>tonalidade</t>
   </si>
   <si>
     <t>Moda</t>
@@ -31,7 +31,7 @@
     <t>Estúdio</t>
   </si>
   <si>
-    <t>Curta</t>
+    <t>Pop</t>
   </si>
 </sst>
 </file>
